--- a/data/raw_data/GA/pop_est_2010-2019_ga.xlsx
+++ b/data/raw_data/GA/pop_est_2010-2019_ga.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iulia\Documents\NSS\projects\capstone\data\GA\raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iulia\Documents\NSS\projects\capstone\data\raw_data\GA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845E8D9B-7E31-4DDC-93A1-1CE8D1C21975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF64A16-3C65-42FA-AF06-06A65C7F0750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="orig" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="331">
   <si>
     <t>Georgia</t>
   </si>
@@ -3618,7 +3618,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O17" sqref="O17"/>
     </sheetView>
@@ -10393,10 +10393,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8FBC61-4B97-4D61-B13C-71EA081FC2CC}">
-  <dimension ref="A1:P161"/>
+  <dimension ref="A1:P160"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="Q154" sqref="Q154"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A161" sqref="A161:XFD161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16969,47 +16969,6 @@
         <v>20247</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A161" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B161" s="11">
-        <v>9687653</v>
-      </c>
-      <c r="C161" s="11">
-        <v>9688729</v>
-      </c>
-      <c r="D161" s="11">
-        <v>9711881</v>
-      </c>
-      <c r="E161" s="11">
-        <v>9802431</v>
-      </c>
-      <c r="F161" s="11">
-        <v>9901430</v>
-      </c>
-      <c r="G161" s="11">
-        <v>9972479</v>
-      </c>
-      <c r="H161" s="11">
-        <v>10067278</v>
-      </c>
-      <c r="I161" s="11">
-        <v>10178447</v>
-      </c>
-      <c r="J161" s="11">
-        <v>10301890</v>
-      </c>
-      <c r="K161" s="11">
-        <v>10410330</v>
-      </c>
-      <c r="L161" s="11">
-        <v>10511131</v>
-      </c>
-      <c r="M161" s="11">
-        <v>10617423</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
